--- a/outputs-r202/train-f__CAG-826.xlsx
+++ b/outputs-r202/train-f__CAG-826.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="501">
   <si>
     <t>Row</t>
   </si>
@@ -1232,6 +1233,294 @@
   </si>
   <si>
     <t>GB_GCA_903845135.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437235.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002477825.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002477825.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002477825.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002477825.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002477825.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012729405.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012729405.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012729405.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012729405.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012729405.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012729405.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518455.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785645.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785645.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785645.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785645.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785645.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785645.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315885.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315885.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315885.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315885.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315885.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900549975.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900549975.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837435.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798595.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002070905.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002070905.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002070905.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002070905.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002306335.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002306335.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002329705.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012522695.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012522695.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317145.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317145.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317145.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317145.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317145.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317145.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002353275.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392945.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769185.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800025.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800355.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800355.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800905.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803285.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902787955.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796125.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797855.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002399785.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002399785.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002451465.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540365.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540395.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540395.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002449265.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542595.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781615.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791085.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002427365.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002427365.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002427365.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518415.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518415.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002422535.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002422535.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002422535.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002422535.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002422535.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561785.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316365.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317295.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902773005.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900767825.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482465.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482465.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482465.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482465.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482465.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482465.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002292805.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002292805.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903845135.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903845135.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903845135.1_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1268,11 +1557,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1282,6 +1573,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26635,4 +26928,6341 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U97"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.5703125" customWidth="true"/>
+    <col min="9" max="9" width="15.5703125" customWidth="true"/>
+    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true"/>
+    <col min="12" max="12" width="15.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.5703125" customWidth="true"/>
+    <col min="14" max="14" width="15.7109375" customWidth="true"/>
+    <col min="15" max="15" width="15.5703125" customWidth="true"/>
+    <col min="16" max="16" width="15.5703125" customWidth="true"/>
+    <col min="17" max="17" width="15.5703125" customWidth="true"/>
+    <col min="18" max="18" width="15.5703125" customWidth="true"/>
+    <col min="19" max="19" width="15.5703125" customWidth="true"/>
+    <col min="20" max="20" width="10.28515625" customWidth="true"/>
+    <col min="21" max="21" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2">
+        <v>0.99139080839676685</v>
+      </c>
+      <c r="C2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="E2">
+        <v>0.0081577257884627215</v>
+      </c>
+      <c r="F2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="G2">
+        <v>5.3883998696126129e-05</v>
+      </c>
+      <c r="H2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="K2">
+        <v>3.7946389125059097e-08</v>
+      </c>
+      <c r="L2">
+        <v>0.00039422236617846408</v>
+      </c>
+      <c r="M2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="N2">
+        <v>3.3215032402958121e-06</v>
+      </c>
+      <c r="O2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="Q2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="S2">
+        <v>2.2201209208980742e-14</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3">
+        <v>0.99088565269701301</v>
+      </c>
+      <c r="C3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="E3">
+        <v>0.0087529611058820775</v>
+      </c>
+      <c r="F3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="G3">
+        <v>0.00011406187480288313</v>
+      </c>
+      <c r="H3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="K3">
+        <v>3.2667324948608032e-07</v>
+      </c>
+      <c r="L3">
+        <v>0.00024427819124486029</v>
+      </c>
+      <c r="M3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="N3">
+        <v>2.7194575414112663e-06</v>
+      </c>
+      <c r="O3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="P3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="Q3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="R3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="S3">
+        <v>2.2201138136428123e-14</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4">
+        <v>0.99035385228963302</v>
+      </c>
+      <c r="C4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="E4">
+        <v>0.0089414525828664018</v>
+      </c>
+      <c r="F4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="G4">
+        <v>0.00011247872275388513</v>
+      </c>
+      <c r="H4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="K4">
+        <v>6.9389943758822162e-08</v>
+      </c>
+      <c r="L4">
+        <v>0.00058364777710221815</v>
+      </c>
+      <c r="M4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="N4">
+        <v>8.4992374341446528e-06</v>
+      </c>
+      <c r="O4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="S4">
+        <v>2.2201315732486374e-14</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>0.99090479235807005</v>
+      </c>
+      <c r="C5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="E5">
+        <v>0.0072521190828960438</v>
+      </c>
+      <c r="F5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="G5">
+        <v>0.0016583529528091676</v>
+      </c>
+      <c r="H5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="J5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="K5">
+        <v>1.4638139162940413e-06</v>
+      </c>
+      <c r="L5">
+        <v>0.00017695394731403924</v>
+      </c>
+      <c r="M5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="N5">
+        <v>6.3178447278174487e-06</v>
+      </c>
+      <c r="O5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="P5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="Q5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="R5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="S5">
+        <v>2.2202002457789301e-14</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6">
+        <v>0.99083877349116067</v>
+      </c>
+      <c r="C6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="D6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="E6">
+        <v>0.0084442670346453093</v>
+      </c>
+      <c r="F6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="G6">
+        <v>7.9102368243310833e-05</v>
+      </c>
+      <c r="H6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="K6">
+        <v>2.6768508535732839e-08</v>
+      </c>
+      <c r="L6">
+        <v>0.00063181999296195847</v>
+      </c>
+      <c r="M6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="N6">
+        <v>6.010344213573903e-06</v>
+      </c>
+      <c r="O6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="P6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="Q6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="R6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="S6">
+        <v>2.2201353850934081e-14</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7">
+        <v>0.99120751121129969</v>
+      </c>
+      <c r="C7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="D7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="E7">
+        <v>0.0076048519678269082</v>
+      </c>
+      <c r="F7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="G7">
+        <v>0.00091572722156758218</v>
+      </c>
+      <c r="H7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="K7">
+        <v>4.4328423747133895e-07</v>
+      </c>
+      <c r="L7">
+        <v>0.00026819361549330602</v>
+      </c>
+      <c r="M7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="N7">
+        <v>3.2726993084249899e-06</v>
+      </c>
+      <c r="O7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="P7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="S7">
+        <v>2.2201644036104239e-14</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="C8">
+        <v>0.99640823634911968</v>
+      </c>
+      <c r="D8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="E8">
+        <v>0.0014953295381097036</v>
+      </c>
+      <c r="F8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="G8">
+        <v>4.7382448084757356e-07</v>
+      </c>
+      <c r="H8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="K8">
+        <v>1.0078593591368548e-12</v>
+      </c>
+      <c r="L8">
+        <v>0.00021546984465509902</v>
+      </c>
+      <c r="M8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="N8">
+        <v>0.0018804904423604892</v>
+      </c>
+      <c r="O8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="P8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="Q8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="R8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="S8">
+        <v>2.2201227503319636e-14</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.99448738168654616</v>
+      </c>
+      <c r="D9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="E9">
+        <v>0.0017718211638860398</v>
+      </c>
+      <c r="F9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="G9">
+        <v>3.905250056426137e-06</v>
+      </c>
+      <c r="H9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="K9">
+        <v>5.176028666813943e-08</v>
+      </c>
+      <c r="L9">
+        <v>0.0036411258873596444</v>
+      </c>
+      <c r="M9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="N9">
+        <v>9.571425159867924e-05</v>
+      </c>
+      <c r="O9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="P9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="R9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="S9">
+        <v>2.2201783103210503e-14</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.99671151021467241</v>
+      </c>
+      <c r="D10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="E10">
+        <v>0.0014616613667724257</v>
+      </c>
+      <c r="F10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="G10">
+        <v>3.8168098517863945e-07</v>
+      </c>
+      <c r="H10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2570497497127048e-12</v>
+      </c>
+      <c r="L10">
+        <v>0.0003095322385550692</v>
+      </c>
+      <c r="M10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="N10">
+        <v>0.0015169144964915201</v>
+      </c>
+      <c r="O10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="P10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="S10">
+        <v>2.2201096950186757e-14</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11">
+        <v>0.053359961817669305</v>
+      </c>
+      <c r="C11">
+        <v>0.087744850110839129</v>
+      </c>
+      <c r="D11">
+        <v>0.053359961817669235</v>
+      </c>
+      <c r="E11">
+        <v>0.056100245983486292</v>
+      </c>
+      <c r="F11">
+        <v>0.053359961817669305</v>
+      </c>
+      <c r="G11">
+        <v>0.053362774073306585</v>
+      </c>
+      <c r="H11">
+        <v>0.053359961817669263</v>
+      </c>
+      <c r="I11">
+        <v>0.053359961817669221</v>
+      </c>
+      <c r="J11">
+        <v>0.053359961817669228</v>
+      </c>
+      <c r="K11">
+        <v>0.05335996393241977</v>
+      </c>
+      <c r="L11">
+        <v>0.05539570466834294</v>
+      </c>
+      <c r="M11">
+        <v>0.053359961817669305</v>
+      </c>
+      <c r="N11">
+        <v>0.053716919419573732</v>
+      </c>
+      <c r="O11">
+        <v>0.053359961817669263</v>
+      </c>
+      <c r="P11">
+        <v>0.053359961817669305</v>
+      </c>
+      <c r="Q11">
+        <v>0.053359961817669305</v>
+      </c>
+      <c r="R11">
+        <v>0.053359961817669305</v>
+      </c>
+      <c r="S11">
+        <v>0.053359961817669339</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.99689628215947412</v>
+      </c>
+      <c r="D12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="E12">
+        <v>0.0016032996562983489</v>
+      </c>
+      <c r="F12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="G12">
+        <v>5.8322163010748328e-07</v>
+      </c>
+      <c r="H12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="K12">
+        <v>2.6049230349315879e-11</v>
+      </c>
+      <c r="L12">
+        <v>0.0006874804868998185</v>
+      </c>
+      <c r="M12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="N12">
+        <v>0.00081235444938192256</v>
+      </c>
+      <c r="O12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="P12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="Q12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="R12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="S12">
+        <v>2.2201008581899723e-14</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.99436884008381787</v>
+      </c>
+      <c r="D13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="E13">
+        <v>0.0012524502869083833</v>
+      </c>
+      <c r="F13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2611687562303127e-06</v>
+      </c>
+      <c r="H13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="K13">
+        <v>6.2810525438754963e-09</v>
+      </c>
+      <c r="L13">
+        <v>0.0042659597679439174</v>
+      </c>
+      <c r="M13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="N13">
+        <v>0.00011048241125452835</v>
+      </c>
+      <c r="O13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="P13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="Q13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="R13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="S13">
+        <v>2.2201646215349605e-14</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="C14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="D14">
+        <v>0.9972342738464296</v>
+      </c>
+      <c r="E14">
+        <v>0.0010396867939535541</v>
+      </c>
+      <c r="F14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="G14">
+        <v>0.001717072205881829</v>
+      </c>
+      <c r="H14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="K14">
+        <v>1.6154258397066619e-09</v>
+      </c>
+      <c r="L14">
+        <v>7.6095311029877252e-06</v>
+      </c>
+      <c r="M14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="N14">
+        <v>1.3560069399478198e-06</v>
+      </c>
+      <c r="O14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="P14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="Q14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="R14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="S14">
+        <v>2.220107661011594e-14</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="C15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.99792864819464622</v>
+      </c>
+      <c r="E15">
+        <v>0.0019826413019585613</v>
+      </c>
+      <c r="F15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="G15">
+        <v>8.4949522815295535e-05</v>
+      </c>
+      <c r="H15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="K15">
+        <v>2.7806009584788384e-11</v>
+      </c>
+      <c r="L15">
+        <v>1.7710319153147213e-06</v>
+      </c>
+      <c r="M15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="N15">
+        <v>1.9899205924592227e-06</v>
+      </c>
+      <c r="O15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="P15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="Q15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="R15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="S15">
+        <v>2.2201920929768005e-14</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="C16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.9981573705637139</v>
+      </c>
+      <c r="E16">
+        <v>0.00159262130007192</v>
+      </c>
+      <c r="F16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="G16">
+        <v>0.00024632455082397283</v>
+      </c>
+      <c r="H16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="K16">
+        <v>7.159152003497637e-11</v>
+      </c>
+      <c r="L16">
+        <v>1.857654427224988e-06</v>
+      </c>
+      <c r="M16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="N16">
+        <v>1.8258591051527513e-06</v>
+      </c>
+      <c r="O16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="P16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="Q16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="R16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="S16">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="C17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.99753857990473205</v>
+      </c>
+      <c r="E17">
+        <v>0.0012478811943842933</v>
+      </c>
+      <c r="F17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="G17">
+        <v>0.0012056651150609589</v>
+      </c>
+      <c r="H17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="K17">
+        <v>1.7799255157072575e-10</v>
+      </c>
+      <c r="L17">
+        <v>6.1331235420592184e-06</v>
+      </c>
+      <c r="M17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="N17">
+        <v>1.7404840214053962e-06</v>
+      </c>
+      <c r="O17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="P17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="Q17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="R17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="S17">
+        <v>2.2201446201628686e-14</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.99798557723080639</v>
+      </c>
+      <c r="E18">
+        <v>0.0012626586489457229</v>
+      </c>
+      <c r="F18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="G18">
+        <v>0.00074624269723740696</v>
+      </c>
+      <c r="H18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="K18">
+        <v>1.3885378281180128e-09</v>
+      </c>
+      <c r="L18">
+        <v>3.6536894812101537e-06</v>
+      </c>
+      <c r="M18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="N18">
+        <v>1.8663447250372698e-06</v>
+      </c>
+      <c r="O18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="P18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="Q18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="R18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="S18">
+        <v>2.220199031860378e-14</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.9967185403170481</v>
+      </c>
+      <c r="E19">
+        <v>0.00096589828504704345</v>
+      </c>
+      <c r="F19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="G19">
+        <v>0.0023050868709131164</v>
+      </c>
+      <c r="H19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="K19">
+        <v>5.4465188142309008e-09</v>
+      </c>
+      <c r="L19">
+        <v>9.1065276001579159e-06</v>
+      </c>
+      <c r="M19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="N19">
+        <v>1.3625526062132699e-06</v>
+      </c>
+      <c r="O19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="P19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="Q19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="R19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="S19">
+        <v>2.2201025043530845e-14</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.9981573705637139</v>
+      </c>
+      <c r="E20">
+        <v>0.00159262130007192</v>
+      </c>
+      <c r="F20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="G20">
+        <v>0.00024632455082397283</v>
+      </c>
+      <c r="H20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="K20">
+        <v>7.159152003497637e-11</v>
+      </c>
+      <c r="L20">
+        <v>1.857654427224988e-06</v>
+      </c>
+      <c r="M20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="N20">
+        <v>1.8258591051527513e-06</v>
+      </c>
+      <c r="O20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="P20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="Q20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="R20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="S20">
+        <v>2.2202199821642921e-14</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21">
+        <v>1.2529974972218141e-12</v>
+      </c>
+      <c r="C21">
+        <v>1.2529974972218141e-12</v>
+      </c>
+      <c r="D21">
+        <v>1.2529974972218139e-12</v>
+      </c>
+      <c r="E21">
+        <v>0.77807886036608809</v>
+      </c>
+      <c r="F21">
+        <v>1.2529974972218125e-12</v>
+      </c>
+      <c r="G21">
+        <v>0.15816857285121466</v>
+      </c>
+      <c r="H21">
+        <v>1.2529974972218141e-12</v>
+      </c>
+      <c r="I21">
+        <v>1.2529974972218127e-12</v>
+      </c>
+      <c r="J21">
+        <v>1.2529974972218145e-12</v>
+      </c>
+      <c r="K21">
+        <v>0.027581200085098463</v>
+      </c>
+      <c r="L21">
+        <v>0.036166276363537052</v>
+      </c>
+      <c r="M21">
+        <v>1.2529974972218113e-12</v>
+      </c>
+      <c r="N21">
+        <v>5.0903177726793584e-06</v>
+      </c>
+      <c r="O21">
+        <v>1.2529974972218117e-12</v>
+      </c>
+      <c r="P21">
+        <v>1.2529974972218131e-12</v>
+      </c>
+      <c r="Q21">
+        <v>1.2529974972218131e-12</v>
+      </c>
+      <c r="R21">
+        <v>1.2529974972218131e-12</v>
+      </c>
+      <c r="S21">
+        <v>1.2529974972218131e-12</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22">
+        <v>1.1189004787778652e-12</v>
+      </c>
+      <c r="C22">
+        <v>1.1189004787778652e-12</v>
+      </c>
+      <c r="D22">
+        <v>1.118900478777865e-12</v>
+      </c>
+      <c r="E22">
+        <v>0.83716907517348493</v>
+      </c>
+      <c r="F22">
+        <v>1.1189004787778646e-12</v>
+      </c>
+      <c r="G22">
+        <v>0.049263866136004149</v>
+      </c>
+      <c r="H22">
+        <v>1.1189004787778656e-12</v>
+      </c>
+      <c r="I22">
+        <v>1.1189004787778654e-12</v>
+      </c>
+      <c r="J22">
+        <v>1.1189004787778654e-12</v>
+      </c>
+      <c r="K22">
+        <v>0.00098858239961957029</v>
+      </c>
+      <c r="L22">
+        <v>0.11257385423152942</v>
+      </c>
+      <c r="M22">
+        <v>1.1189004787778654e-12</v>
+      </c>
+      <c r="N22">
+        <v>4.6220448165978747e-06</v>
+      </c>
+      <c r="O22">
+        <v>1.1189004787778646e-12</v>
+      </c>
+      <c r="P22">
+        <v>1.1189004787778656e-12</v>
+      </c>
+      <c r="Q22">
+        <v>1.1189004787778656e-12</v>
+      </c>
+      <c r="R22">
+        <v>1.1189004787778656e-12</v>
+      </c>
+      <c r="S22">
+        <v>1.1189004787778648e-12</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23">
+        <v>1.0047990313997419e-12</v>
+      </c>
+      <c r="C23">
+        <v>1.0047990313997419e-12</v>
+      </c>
+      <c r="D23">
+        <v>1.0047990313997419e-12</v>
+      </c>
+      <c r="E23">
+        <v>0.80608211246084649</v>
+      </c>
+      <c r="F23">
+        <v>1.0047990313997415e-12</v>
+      </c>
+      <c r="G23">
+        <v>0.12662863034411836</v>
+      </c>
+      <c r="H23">
+        <v>1.0047990313997417e-12</v>
+      </c>
+      <c r="I23">
+        <v>1.0047990313997409e-12</v>
+      </c>
+      <c r="J23">
+        <v>1.0047990313997413e-12</v>
+      </c>
+      <c r="K23">
+        <v>0.0062771115398265291</v>
+      </c>
+      <c r="L23">
+        <v>0.061009718807875465</v>
+      </c>
+      <c r="M23">
+        <v>1.0047990313997413e-12</v>
+      </c>
+      <c r="N23">
+        <v>2.4268342705748349e-06</v>
+      </c>
+      <c r="O23">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="P23">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="Q23">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="R23">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="S23">
+        <v>1.0047990313997403e-12</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24">
+        <v>6.3782400465264163e-13</v>
+      </c>
+      <c r="C24">
+        <v>6.3782400465264163e-13</v>
+      </c>
+      <c r="D24">
+        <v>6.3782400465264143e-13</v>
+      </c>
+      <c r="E24">
+        <v>0.82773363849797499</v>
+      </c>
+      <c r="F24">
+        <v>6.3782400465264173e-13</v>
+      </c>
+      <c r="G24">
+        <v>0.058047007813205515</v>
+      </c>
+      <c r="H24">
+        <v>6.3782400465262648e-13</v>
+      </c>
+      <c r="I24">
+        <v>6.3782400465262568e-13</v>
+      </c>
+      <c r="J24">
+        <v>6.3782400465262658e-13</v>
+      </c>
+      <c r="K24">
+        <v>0.00011660055501505658</v>
+      </c>
+      <c r="L24">
+        <v>0.11409901052397589</v>
+      </c>
+      <c r="M24">
+        <v>6.3782400465262467e-13</v>
+      </c>
+      <c r="N24">
+        <v>3.7426015370801898e-06</v>
+      </c>
+      <c r="O24">
+        <v>6.3782400465262467e-13</v>
+      </c>
+      <c r="P24">
+        <v>6.3782400465262467e-13</v>
+      </c>
+      <c r="Q24">
+        <v>6.3782400465262467e-13</v>
+      </c>
+      <c r="R24">
+        <v>6.3782400465262467e-13</v>
+      </c>
+      <c r="S24">
+        <v>6.3782400465262537e-13</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25">
+        <v>1.0047990313997419e-12</v>
+      </c>
+      <c r="C25">
+        <v>1.0047990313997419e-12</v>
+      </c>
+      <c r="D25">
+        <v>1.0047990313997419e-12</v>
+      </c>
+      <c r="E25">
+        <v>0.80608211246084649</v>
+      </c>
+      <c r="F25">
+        <v>1.0047990313997415e-12</v>
+      </c>
+      <c r="G25">
+        <v>0.12662863034411836</v>
+      </c>
+      <c r="H25">
+        <v>1.0047990313997417e-12</v>
+      </c>
+      <c r="I25">
+        <v>1.0047990313997409e-12</v>
+      </c>
+      <c r="J25">
+        <v>1.0047990313997413e-12</v>
+      </c>
+      <c r="K25">
+        <v>0.0062771115398265291</v>
+      </c>
+      <c r="L25">
+        <v>0.061009718807875465</v>
+      </c>
+      <c r="M25">
+        <v>1.0047990313997413e-12</v>
+      </c>
+      <c r="N25">
+        <v>2.4268342705748349e-06</v>
+      </c>
+      <c r="O25">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="P25">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="Q25">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="R25">
+        <v>1.0047990313997411e-12</v>
+      </c>
+      <c r="S25">
+        <v>1.0047990313997403e-12</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26">
+        <v>6.9219490041796996e-13</v>
+      </c>
+      <c r="C26">
+        <v>6.9219490041796996e-13</v>
+      </c>
+      <c r="D26">
+        <v>6.9219490041797017e-13</v>
+      </c>
+      <c r="E26">
+        <v>0.77542504618953956</v>
+      </c>
+      <c r="F26">
+        <v>6.9219490041797017e-13</v>
+      </c>
+      <c r="G26">
+        <v>0.13967460246841654</v>
+      </c>
+      <c r="H26">
+        <v>6.9219490041797017e-13</v>
+      </c>
+      <c r="I26">
+        <v>6.9219490041796986e-13</v>
+      </c>
+      <c r="J26">
+        <v>6.9219490041797017e-13</v>
+      </c>
+      <c r="K26">
+        <v>0.0016770706651402093</v>
+      </c>
+      <c r="L26">
+        <v>0.083220439103629709</v>
+      </c>
+      <c r="M26">
+        <v>6.9219490041797017e-13</v>
+      </c>
+      <c r="N26">
+        <v>2.8415642749297117e-06</v>
+      </c>
+      <c r="O26">
+        <v>6.9219490041797027e-13</v>
+      </c>
+      <c r="P26">
+        <v>6.9219490041797037e-13</v>
+      </c>
+      <c r="Q26">
+        <v>6.9219490041797037e-13</v>
+      </c>
+      <c r="R26">
+        <v>6.9219490041797037e-13</v>
+      </c>
+      <c r="S26">
+        <v>6.9219490041797057e-13</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.0086529411426533934</v>
+      </c>
+      <c r="F27">
+        <v>0.98191070415058546</v>
+      </c>
+      <c r="G27">
+        <v>6.6301928843234941e-08</v>
+      </c>
+      <c r="H27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="K27">
+        <v>1.7080556846563602e-11</v>
+      </c>
+      <c r="L27">
+        <v>0.0094362737947795358</v>
+      </c>
+      <c r="M27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="N27">
+        <v>1.4592705779761386e-08</v>
+      </c>
+      <c r="O27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="P27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="Q27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="R27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="S27">
+        <v>2.2204036927831667e-14</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="E28">
+        <v>0.0095710609695435298</v>
+      </c>
+      <c r="F28">
+        <v>0.98758887102010018</v>
+      </c>
+      <c r="G28">
+        <v>8.7033032405286795e-08</v>
+      </c>
+      <c r="H28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="K28">
+        <v>3.5407080532633414e-10</v>
+      </c>
+      <c r="L28">
+        <v>0.0028399702385425432</v>
+      </c>
+      <c r="M28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="N28">
+        <v>1.0384444080219043e-08</v>
+      </c>
+      <c r="O28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="P28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="Q28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="R28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="S28">
+        <v>2.2202393344823683e-14</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="E29">
+        <v>0.010867682847737325</v>
+      </c>
+      <c r="F29">
+        <v>0.98840182653974262</v>
+      </c>
+      <c r="G29">
+        <v>4.8369304873671705e-06</v>
+      </c>
+      <c r="H29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="K29">
+        <v>5.3831569578492751e-06</v>
+      </c>
+      <c r="L29">
+        <v>0.00072025838458838825</v>
+      </c>
+      <c r="M29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="N29">
+        <v>1.2140219960900508e-08</v>
+      </c>
+      <c r="O29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="P29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="Q29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="R29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="S29">
+        <v>2.2201232038056684e-14</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="E30">
+        <v>0.010556118484397128</v>
+      </c>
+      <c r="F30">
+        <v>0.98826223685567249</v>
+      </c>
+      <c r="G30">
+        <v>8.8915972059701444e-07</v>
+      </c>
+      <c r="H30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="K30">
+        <v>7.0105206967914076e-08</v>
+      </c>
+      <c r="L30">
+        <v>0.0011806554617759821</v>
+      </c>
+      <c r="M30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="N30">
+        <v>2.9932960401286816e-08</v>
+      </c>
+      <c r="O30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="P30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="Q30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="R30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="S30">
+        <v>2.2201502993895854e-14</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="E31">
+        <v>0.0088264624746214378</v>
+      </c>
+      <c r="F31">
+        <v>0.99091484945897346</v>
+      </c>
+      <c r="G31">
+        <v>9.3399170937341455e-07</v>
+      </c>
+      <c r="H31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="K31">
+        <v>1.3677458829468268e-07</v>
+      </c>
+      <c r="L31">
+        <v>0.00025760528985963553</v>
+      </c>
+      <c r="M31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="N31">
+        <v>1.2009981391901032e-08</v>
+      </c>
+      <c r="O31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="P31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="Q31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="R31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="S31">
+        <v>2.2201082584281559e-14</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="E32">
+        <v>0.0037395284856566106</v>
+      </c>
+      <c r="F32">
+        <v>0.99545460599257063</v>
+      </c>
+      <c r="G32">
+        <v>2.4899502709755957e-10</v>
+      </c>
+      <c r="H32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="K32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="L32">
+        <v>0.00080583436472033104</v>
+      </c>
+      <c r="M32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="N32">
+        <v>3.0907768642377446e-08</v>
+      </c>
+      <c r="O32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="P32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="Q32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="R32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="S32">
+        <v>2.2201264113945328e-14</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="E33">
+        <v>0.0064749350876762675</v>
+      </c>
+      <c r="F33">
+        <v>0.99312930734592664</v>
+      </c>
+      <c r="G33">
+        <v>1.1036299925078055e-08</v>
+      </c>
+      <c r="H33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="I33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="K33">
+        <v>1.0743750191371721e-12</v>
+      </c>
+      <c r="L33">
+        <v>0.00039571844330974176</v>
+      </c>
+      <c r="M33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="N33">
+        <v>2.8085446760287184e-08</v>
+      </c>
+      <c r="O33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="P33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="Q33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="R33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="S33">
+        <v>2.2201184789033812e-14</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34">
+        <v>2.504458206845584e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.504458206845584e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.5044582068455843e-14</v>
+      </c>
+      <c r="E34">
+        <v>0.0050260694301602939</v>
+      </c>
+      <c r="F34">
+        <v>2.5044582068455865e-14</v>
+      </c>
+      <c r="G34">
+        <v>0.98941575836608187</v>
+      </c>
+      <c r="H34">
+        <v>2.5044582068455833e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.5044582068455811e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.5044582068455833e-14</v>
+      </c>
+      <c r="K34">
+        <v>0.0007773672821866942</v>
+      </c>
+      <c r="L34">
+        <v>0.0045758645081948037</v>
+      </c>
+      <c r="M34">
+        <v>2.5044582068455862e-14</v>
+      </c>
+      <c r="N34">
+        <v>0.00020494041305040825</v>
+      </c>
+      <c r="O34">
+        <v>2.5044582068455852e-14</v>
+      </c>
+      <c r="P34">
+        <v>2.5044582068455896e-14</v>
+      </c>
+      <c r="Q34">
+        <v>2.5044582068455896e-14</v>
+      </c>
+      <c r="R34">
+        <v>2.5044582068455896e-14</v>
+      </c>
+      <c r="S34">
+        <v>2.5044582068455865e-14</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35">
+        <v>4.2232462614800626e-14</v>
+      </c>
+      <c r="C35">
+        <v>4.2232462614800626e-14</v>
+      </c>
+      <c r="D35">
+        <v>4.2232462614800594e-14</v>
+      </c>
+      <c r="E35">
+        <v>0.070853603708532276</v>
+      </c>
+      <c r="F35">
+        <v>4.2232462614800582e-14</v>
+      </c>
+      <c r="G35">
+        <v>0.9280676939739535</v>
+      </c>
+      <c r="H35">
+        <v>4.2232462614800645e-14</v>
+      </c>
+      <c r="I35">
+        <v>4.2232462614800613e-14</v>
+      </c>
+      <c r="J35">
+        <v>4.2232462614800632e-14</v>
+      </c>
+      <c r="K35">
+        <v>6.4825504896312683e-05</v>
+      </c>
+      <c r="L35">
+        <v>0.0010097510105511601</v>
+      </c>
+      <c r="M35">
+        <v>4.2232462614800626e-14</v>
+      </c>
+      <c r="N35">
+        <v>4.1258015180055821e-06</v>
+      </c>
+      <c r="O35">
+        <v>4.2232462614800645e-14</v>
+      </c>
+      <c r="P35">
+        <v>4.223246261480067e-14</v>
+      </c>
+      <c r="Q35">
+        <v>4.223246261480067e-14</v>
+      </c>
+      <c r="R35">
+        <v>4.223246261480067e-14</v>
+      </c>
+      <c r="S35">
+        <v>4.2232462614800632e-14</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="E36">
+        <v>0.00060610345343674126</v>
+      </c>
+      <c r="F36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="G36">
+        <v>0.0021422498533450051</v>
+      </c>
+      <c r="H36">
+        <v>0.98911262943895661</v>
+      </c>
+      <c r="I36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="K36">
+        <v>4.6323270438736064e-10</v>
+      </c>
+      <c r="L36">
+        <v>0.0081387376983873636</v>
+      </c>
+      <c r="M36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="N36">
+        <v>2.7909237531818007e-07</v>
+      </c>
+      <c r="O36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="P36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="Q36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="R36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="S36">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="C37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="E37">
+        <v>0.0024469980176665311</v>
+      </c>
+      <c r="F37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="G37">
+        <v>0.00018939275347241665</v>
+      </c>
+      <c r="H37">
+        <v>0.996466413278561</v>
+      </c>
+      <c r="I37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="J37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="K37">
+        <v>1.9532348239240651e-11</v>
+      </c>
+      <c r="L37">
+        <v>0.00089440695420397434</v>
+      </c>
+      <c r="M37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="N37">
+        <v>2.7889762972876111e-06</v>
+      </c>
+      <c r="O37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="P37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="Q37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="R37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="S37">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="T37">
+        <v>7</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="C38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="E38">
+        <v>0.0024469980176665311</v>
+      </c>
+      <c r="F38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="G38">
+        <v>0.00018939275347241665</v>
+      </c>
+      <c r="H38">
+        <v>0.996466413278561</v>
+      </c>
+      <c r="I38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="J38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="K38">
+        <v>1.9532348239240651e-11</v>
+      </c>
+      <c r="L38">
+        <v>0.00089440695420397434</v>
+      </c>
+      <c r="M38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="N38">
+        <v>2.7889762972876111e-06</v>
+      </c>
+      <c r="O38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="P38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="Q38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="R38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="S38">
+        <v>2.2201138062942359e-14</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="C39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="E39">
+        <v>0.00060610345343674126</v>
+      </c>
+      <c r="F39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="G39">
+        <v>0.0021422498533450051</v>
+      </c>
+      <c r="H39">
+        <v>0.98911262943895661</v>
+      </c>
+      <c r="I39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="J39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="K39">
+        <v>4.6323270438736064e-10</v>
+      </c>
+      <c r="L39">
+        <v>0.0081387376983873636</v>
+      </c>
+      <c r="M39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="N39">
+        <v>2.7909237531818007e-07</v>
+      </c>
+      <c r="O39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="P39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="Q39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="R39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="S39">
+        <v>2.2202368926638898e-14</v>
+      </c>
+      <c r="T39">
+        <v>7</v>
+      </c>
+      <c r="U39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="E40">
+        <v>0.0029810209012117129</v>
+      </c>
+      <c r="F40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="G40">
+        <v>8.0599846915615788e-07</v>
+      </c>
+      <c r="H40">
+        <v>0.99338304614624184</v>
+      </c>
+      <c r="I40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="J40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="K40">
+        <v>1.6347190179653192e-12</v>
+      </c>
+      <c r="L40">
+        <v>0.0036258719638051604</v>
+      </c>
+      <c r="M40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="N40">
+        <v>9.254988370917326e-06</v>
+      </c>
+      <c r="O40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="P40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="Q40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="R40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="S40">
+        <v>2.2202171598578185e-14</v>
+      </c>
+      <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="U40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="C41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="D41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="E41">
+        <v>0.0013107590433042299</v>
+      </c>
+      <c r="F41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="G41">
+        <v>4.8492761205768858e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.99177079978792715</v>
+      </c>
+      <c r="I41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="J41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="K41">
+        <v>1.806948234550048e-12</v>
+      </c>
+      <c r="L41">
+        <v>0.0068658141042282142</v>
+      </c>
+      <c r="M41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="N41">
+        <v>4.1343012612391333e-06</v>
+      </c>
+      <c r="O41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="P41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="Q41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="R41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="S41">
+        <v>2.2201766813783606e-14</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="E42">
+        <v>1.9528536850545237e-05</v>
+      </c>
+      <c r="F42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="G42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="H42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="I42">
+        <v>0.99997109462547207</v>
+      </c>
+      <c r="J42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="K42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="L42">
+        <v>5.9220670249321341e-10</v>
+      </c>
+      <c r="M42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="N42">
+        <v>9.3762451599285939e-06</v>
+      </c>
+      <c r="O42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="Q42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="R42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="S42">
+        <v>2.2204424838419884e-14</v>
+      </c>
+      <c r="T42">
+        <v>8</v>
+      </c>
+      <c r="U42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="E43">
+        <v>0.0035256753984763403</v>
+      </c>
+      <c r="F43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="G43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="I43">
+        <v>0.9964710082787811</v>
+      </c>
+      <c r="J43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="K43">
+        <v>1.0329277515665274e-10</v>
+      </c>
+      <c r="L43">
+        <v>3.0495053079764931e-06</v>
+      </c>
+      <c r="M43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="N43">
+        <v>2.6671385324858769e-07</v>
+      </c>
+      <c r="O43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="P43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="Q43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="R43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="S43">
+        <v>2.2200898786750534e-14</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="E44">
+        <v>0.0034616943041085009</v>
+      </c>
+      <c r="F44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="G44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="I44">
+        <v>0.99653383343275037</v>
+      </c>
+      <c r="J44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="K44">
+        <v>6.5757926716424942e-12</v>
+      </c>
+      <c r="L44">
+        <v>3.9391740681085675e-06</v>
+      </c>
+      <c r="M44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="N44">
+        <v>5.3308220852060759e-07</v>
+      </c>
+      <c r="O44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="P44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="Q44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="R44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="S44">
+        <v>2.2200897523359454e-14</v>
+      </c>
+      <c r="T44">
+        <v>8</v>
+      </c>
+      <c r="U44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="C45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="E45">
+        <v>0.00012045183552538734</v>
+      </c>
+      <c r="F45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="G45">
+        <v>1.3250678829247116e-10</v>
+      </c>
+      <c r="H45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="I45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="J45">
+        <v>0.9944730656639692</v>
+      </c>
+      <c r="K45">
+        <v>2.059235175545766e-05</v>
+      </c>
+      <c r="L45">
+        <v>0.0053858879101492682</v>
+      </c>
+      <c r="M45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="N45">
+        <v>2.1058276156913495e-09</v>
+      </c>
+      <c r="O45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="P45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="Q45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="R45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="S45">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="T45">
+        <v>9</v>
+      </c>
+      <c r="U45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="E46">
+        <v>0.00012045183552538734</v>
+      </c>
+      <c r="F46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="G46">
+        <v>1.3250678829247116e-10</v>
+      </c>
+      <c r="H46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="I46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="J46">
+        <v>0.9944730656639692</v>
+      </c>
+      <c r="K46">
+        <v>2.059235175545766e-05</v>
+      </c>
+      <c r="L46">
+        <v>0.0053858879101492682</v>
+      </c>
+      <c r="M46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="N46">
+        <v>2.1058276156913495e-09</v>
+      </c>
+      <c r="O46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="Q46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="S46">
+        <v>2.2201001500874846e-14</v>
+      </c>
+      <c r="T46">
+        <v>9</v>
+      </c>
+      <c r="U46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="E47">
+        <v>6.3839617544122457e-05</v>
+      </c>
+      <c r="F47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="G47">
+        <v>7.4100926891311142e-10</v>
+      </c>
+      <c r="H47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="J47">
+        <v>0.99532244258892721</v>
+      </c>
+      <c r="K47">
+        <v>0.0017974129971929933</v>
+      </c>
+      <c r="L47">
+        <v>0.0028163024789278211</v>
+      </c>
+      <c r="M47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="N47">
+        <v>1.5761323025125188e-09</v>
+      </c>
+      <c r="O47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="P47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="Q47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="R47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="S47">
+        <v>2.2201585159023754e-14</v>
+      </c>
+      <c r="T47">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.5776826521573752e-05</v>
+      </c>
+      <c r="F48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="G48">
+        <v>6.0270396971131867e-11</v>
+      </c>
+      <c r="H48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="J48">
+        <v>0.99160929758481819</v>
+      </c>
+      <c r="K48">
+        <v>4.3293327919151401e-05</v>
+      </c>
+      <c r="L48">
+        <v>0.0083216318744148716</v>
+      </c>
+      <c r="M48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="N48">
+        <v>3.2578936243980045e-10</v>
+      </c>
+      <c r="O48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="P48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="Q48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="R48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="S48">
+        <v>2.2200974762412587e-14</v>
+      </c>
+      <c r="T48">
+        <v>9</v>
+      </c>
+      <c r="U48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="E49">
+        <v>6.7537201226419995e-05</v>
+      </c>
+      <c r="F49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="G49">
+        <v>3.1673745779680546e-10</v>
+      </c>
+      <c r="H49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="J49">
+        <v>0.9958279109590964</v>
+      </c>
+      <c r="K49">
+        <v>7.1160132442332888e-05</v>
+      </c>
+      <c r="L49">
+        <v>0.0040333905165226358</v>
+      </c>
+      <c r="M49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="N49">
+        <v>8.7370829535180243e-10</v>
+      </c>
+      <c r="O49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="P49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="Q49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="R49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="S49">
+        <v>2.220096037580562e-14</v>
+      </c>
+      <c r="T49">
+        <v>9</v>
+      </c>
+      <c r="U49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="C50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="E50">
+        <v>4.2522370908096795e-05</v>
+      </c>
+      <c r="F50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="G50">
+        <v>4.6751753170885256e-11</v>
+      </c>
+      <c r="H50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="J50">
+        <v>0.99274435469300659</v>
+      </c>
+      <c r="K50">
+        <v>5.0566993793925767e-06</v>
+      </c>
+      <c r="L50">
+        <v>0.0072080657872577161</v>
+      </c>
+      <c r="M50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="N50">
+        <v>4.024302073985307e-10</v>
+      </c>
+      <c r="O50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="P50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="Q50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="R50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="S50">
+        <v>2.2200957603224971e-14</v>
+      </c>
+      <c r="T50">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="E51">
+        <v>0.011843433330040259</v>
+      </c>
+      <c r="F51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="G51">
+        <v>0.0009371794763135716</v>
+      </c>
+      <c r="H51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="J51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="K51">
+        <v>0.98105190218613936</v>
+      </c>
+      <c r="L51">
+        <v>0.0061669621036367596</v>
+      </c>
+      <c r="M51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="N51">
+        <v>5.2290358136855121e-07</v>
+      </c>
+      <c r="O51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="P51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="Q51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="R51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="S51">
+        <v>2.2201621381123594e-14</v>
+      </c>
+      <c r="T51">
+        <v>10</v>
+      </c>
+      <c r="U51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="E52">
+        <v>0.0072007508429408826</v>
+      </c>
+      <c r="F52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="G52">
+        <v>7.9776927708149142e-05</v>
+      </c>
+      <c r="H52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="J52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="K52">
+        <v>0.99116705482626999</v>
+      </c>
+      <c r="L52">
+        <v>0.0015523583097239819</v>
+      </c>
+      <c r="M52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="N52">
+        <v>5.9093068260930035e-08</v>
+      </c>
+      <c r="O52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="P52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="Q52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="R52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="S52">
+        <v>2.2201603520289646e-14</v>
+      </c>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="C53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="D53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="E53">
+        <v>0.0081208995478939186</v>
+      </c>
+      <c r="F53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="G53">
+        <v>1.2027404336964903e-05</v>
+      </c>
+      <c r="H53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="J53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="K53">
+        <v>0.99084995181393765</v>
+      </c>
+      <c r="L53">
+        <v>0.0010171074030831139</v>
+      </c>
+      <c r="M53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="N53">
+        <v>1.3830459610223653e-08</v>
+      </c>
+      <c r="O53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="P53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="Q53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="R53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="S53">
+        <v>2.2201455707047443e-14</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="U53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="C54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="D54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="E54">
+        <v>0.017984354889313794</v>
+      </c>
+      <c r="F54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="G54">
+        <v>0.00065051692855613082</v>
+      </c>
+      <c r="H54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="J54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="K54">
+        <v>0.9809674817208266</v>
+      </c>
+      <c r="L54">
+        <v>0.00039761646994542074</v>
+      </c>
+      <c r="M54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="N54">
+        <v>2.9991069263260738e-08</v>
+      </c>
+      <c r="O54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="P54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="Q54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="R54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="S54">
+        <v>2.2200634819333667e-14</v>
+      </c>
+      <c r="T54">
+        <v>10</v>
+      </c>
+      <c r="U54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="E55">
+        <v>0.0056901737257071781</v>
+      </c>
+      <c r="F55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="G55">
+        <v>0.00024898657759929552</v>
+      </c>
+      <c r="H55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="K55">
+        <v>0.98755091404551598</v>
+      </c>
+      <c r="L55">
+        <v>0.0065097721361765436</v>
+      </c>
+      <c r="M55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="N55">
+        <v>1.5351471255317244e-07</v>
+      </c>
+      <c r="O55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="P55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="Q55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="R55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="S55">
+        <v>2.220243799640292e-14</v>
+      </c>
+      <c r="T55">
+        <v>10</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="C56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="D56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="E56">
+        <v>0.004148370542525771</v>
+      </c>
+      <c r="F56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="G56">
+        <v>0.00094004280452951536</v>
+      </c>
+      <c r="H56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="J56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="K56">
+        <v>0.99408496649552347</v>
+      </c>
+      <c r="L56">
+        <v>0.00082647561802766042</v>
+      </c>
+      <c r="M56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="N56">
+        <v>1.4453910506473722e-07</v>
+      </c>
+      <c r="O56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="P56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="Q56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="R56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="S56">
+        <v>2.2201852134319861e-14</v>
+      </c>
+      <c r="T56">
+        <v>10</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="C57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="D57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="E57">
+        <v>0.032730001740102647</v>
+      </c>
+      <c r="F57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="G57">
+        <v>3.6805594490696963e-05</v>
+      </c>
+      <c r="H57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="I57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="J57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="K57">
+        <v>0.96515265104860615</v>
+      </c>
+      <c r="L57">
+        <v>0.0020805170562752792</v>
+      </c>
+      <c r="M57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="N57">
+        <v>2.456023659186575e-08</v>
+      </c>
+      <c r="O57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="P57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="Q57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="R57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="S57">
+        <v>2.2199405156156202e-14</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="C58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="E58">
+        <v>0.036510791862105436</v>
+      </c>
+      <c r="F58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="G58">
+        <v>0.00055088343870262973</v>
+      </c>
+      <c r="H58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="I58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="K58">
+        <v>0.96292765124937851</v>
+      </c>
+      <c r="L58">
+        <v>1.0580770267431424e-05</v>
+      </c>
+      <c r="M58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="N58">
+        <v>9.267925752346988e-08</v>
+      </c>
+      <c r="O58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="P58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="Q58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="R58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="S58">
+        <v>2.2198959273730746e-14</v>
+      </c>
+      <c r="T58">
+        <v>10</v>
+      </c>
+      <c r="U58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B59">
+        <v>4.2669784592163836e-13</v>
+      </c>
+      <c r="C59">
+        <v>4.2669784592163836e-13</v>
+      </c>
+      <c r="D59">
+        <v>4.2669784592163851e-13</v>
+      </c>
+      <c r="E59">
+        <v>0.058238070841736898</v>
+      </c>
+      <c r="F59">
+        <v>4.2669784592163861e-13</v>
+      </c>
+      <c r="G59">
+        <v>0.0050901633237383816</v>
+      </c>
+      <c r="H59">
+        <v>4.2669784592163795e-13</v>
+      </c>
+      <c r="I59">
+        <v>4.2669784592163795e-13</v>
+      </c>
+      <c r="J59">
+        <v>4.2669784592163795e-13</v>
+      </c>
+      <c r="K59">
+        <v>0.00024157935460141362</v>
+      </c>
+      <c r="L59">
+        <v>0.93642937248980473</v>
+      </c>
+      <c r="M59">
+        <v>4.2669784592163891e-13</v>
+      </c>
+      <c r="N59">
+        <v>8.1398457104750902e-07</v>
+      </c>
+      <c r="O59">
+        <v>4.2669784592166693e-13</v>
+      </c>
+      <c r="P59">
+        <v>4.2669784592166723e-13</v>
+      </c>
+      <c r="Q59">
+        <v>4.2669784592166723e-13</v>
+      </c>
+      <c r="R59">
+        <v>4.2669784592166723e-13</v>
+      </c>
+      <c r="S59">
+        <v>4.2669784592166723e-13</v>
+      </c>
+      <c r="T59">
+        <v>11</v>
+      </c>
+      <c r="U59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="C60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="E60">
+        <v>0.013571199060078672</v>
+      </c>
+      <c r="F60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="G60">
+        <v>0.00050551267702549346</v>
+      </c>
+      <c r="H60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="J60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="K60">
+        <v>1.4387290615827815e-07</v>
+      </c>
+      <c r="L60">
+        <v>0.9859216296191089</v>
+      </c>
+      <c r="M60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="N60">
+        <v>1.5147705921531808e-06</v>
+      </c>
+      <c r="O60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="P60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="Q60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="R60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="S60">
+        <v>2.2201028289069919e-14</v>
+      </c>
+      <c r="T60">
+        <v>11</v>
+      </c>
+      <c r="U60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="C61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="E61">
+        <v>0.010774995864411425</v>
+      </c>
+      <c r="F61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="G61">
+        <v>3.5474471724243e-05</v>
+      </c>
+      <c r="H61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="K61">
+        <v>0.0027556939149648383</v>
+      </c>
+      <c r="L61">
+        <v>0.98643375377021569</v>
+      </c>
+      <c r="M61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="N61">
+        <v>8.1978395012141183e-08</v>
+      </c>
+      <c r="O61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="P61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="Q61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="R61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="S61">
+        <v>2.2201122342801251e-14</v>
+      </c>
+      <c r="T61">
+        <v>11</v>
+      </c>
+      <c r="U61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="C62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="E62">
+        <v>0.0043988707105837126</v>
+      </c>
+      <c r="F62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="G62">
+        <v>2.139287944615251e-07</v>
+      </c>
+      <c r="H62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="I62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="J62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="K62">
+        <v>5.2402397602239816e-13</v>
+      </c>
+      <c r="L62">
+        <v>0.0044877899722512507</v>
+      </c>
+      <c r="M62">
+        <v>0.99111307120014258</v>
+      </c>
+      <c r="N62">
+        <v>5.4187437658288593e-08</v>
+      </c>
+      <c r="O62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="P62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="Q62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="R62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="S62">
+        <v>2.2202701304391676e-14</v>
+      </c>
+      <c r="T62">
+        <v>12</v>
+      </c>
+      <c r="U62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="D63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="E63">
+        <v>0.0013891117170375116</v>
+      </c>
+      <c r="F63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="G63">
+        <v>6.2956677517381271e-10</v>
+      </c>
+      <c r="H63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="I63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="J63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="K63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="L63">
+        <v>0.0045424990385642388</v>
+      </c>
+      <c r="M63">
+        <v>0.99406830906185439</v>
+      </c>
+      <c r="N63">
+        <v>7.9552688451281066e-08</v>
+      </c>
+      <c r="O63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="P63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="Q63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="R63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="S63">
+        <v>2.2201675192456705e-14</v>
+      </c>
+      <c r="T63">
+        <v>12</v>
+      </c>
+      <c r="U63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="E64">
+        <v>0.00046829781484945186</v>
+      </c>
+      <c r="F64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="G64">
+        <v>5.9940113364147699e-13</v>
+      </c>
+      <c r="H64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="K64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="L64">
+        <v>0.0059715282593660272</v>
+      </c>
+      <c r="M64">
+        <v>0.99356014734693687</v>
+      </c>
+      <c r="N64">
+        <v>2.6577959519087044e-08</v>
+      </c>
+      <c r="O64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="P64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="Q64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="R64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="S64">
+        <v>2.2201228078903312e-14</v>
+      </c>
+      <c r="T64">
+        <v>12</v>
+      </c>
+      <c r="U64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="E65">
+        <v>0.00026463127110935364</v>
+      </c>
+      <c r="F65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="G65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="H65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="K65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="L65">
+        <v>1.7181147911005124e-08</v>
+      </c>
+      <c r="M65">
+        <v>0.99973534968346822</v>
+      </c>
+      <c r="N65">
+        <v>1.863963558709872e-09</v>
+      </c>
+      <c r="O65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="P65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="Q65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="R65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="S65">
+        <v>2.2204134279852925e-14</v>
+      </c>
+      <c r="T65">
+        <v>12</v>
+      </c>
+      <c r="U65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="E66">
+        <v>0.0028463778486173754</v>
+      </c>
+      <c r="F66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="G66">
+        <v>9.229081643572409e-12</v>
+      </c>
+      <c r="H66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="K66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="L66">
+        <v>0.0004767772706906852</v>
+      </c>
+      <c r="M66">
+        <v>0.9966768153191069</v>
+      </c>
+      <c r="N66">
+        <v>2.9552067451327292e-08</v>
+      </c>
+      <c r="O66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="P66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="Q66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="R66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="S66">
+        <v>2.220097423862117e-14</v>
+      </c>
+      <c r="T66">
+        <v>12</v>
+      </c>
+      <c r="U66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="E67">
+        <v>0.0024274879626155713</v>
+      </c>
+      <c r="F67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="G67">
+        <v>1.0633112837247024e-11</v>
+      </c>
+      <c r="H67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="K67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="L67">
+        <v>0.0010493946882481578</v>
+      </c>
+      <c r="M67">
+        <v>0.9965230922130448</v>
+      </c>
+      <c r="N67">
+        <v>2.5125169886243356e-08</v>
+      </c>
+      <c r="O67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="P67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="Q67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="R67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="S67">
+        <v>2.220109332995849e-14</v>
+      </c>
+      <c r="T67">
+        <v>12</v>
+      </c>
+      <c r="U67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68">
+        <v>3.0662484543999502e-14</v>
+      </c>
+      <c r="C68">
+        <v>3.0662484543999502e-14</v>
+      </c>
+      <c r="D68">
+        <v>3.0662484543999496e-14</v>
+      </c>
+      <c r="E68">
+        <v>0.0039076109159868633</v>
+      </c>
+      <c r="F68">
+        <v>3.0662484543999464e-14</v>
+      </c>
+      <c r="G68">
+        <v>0.00026226951000568209</v>
+      </c>
+      <c r="H68">
+        <v>3.0662484543999401e-14</v>
+      </c>
+      <c r="I68">
+        <v>3.0662484543999351e-14</v>
+      </c>
+      <c r="J68">
+        <v>3.0662484543999351e-14</v>
+      </c>
+      <c r="K68">
+        <v>3.0662484543999458e-14</v>
+      </c>
+      <c r="L68">
+        <v>0.0009555784512976362</v>
+      </c>
+      <c r="M68">
+        <v>3.0662484543999395e-14</v>
+      </c>
+      <c r="N68">
+        <v>0.99487454112228058</v>
+      </c>
+      <c r="O68">
+        <v>3.0662484543999414e-14</v>
+      </c>
+      <c r="P68">
+        <v>3.0662484543999483e-14</v>
+      </c>
+      <c r="Q68">
+        <v>3.0662484543999483e-14</v>
+      </c>
+      <c r="R68">
+        <v>3.0662484543999483e-14</v>
+      </c>
+      <c r="S68">
+        <v>3.0662484543999401e-14</v>
+      </c>
+      <c r="T68">
+        <v>13</v>
+      </c>
+      <c r="U68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="C69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="D69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="E69">
+        <v>0.0061330471691109509</v>
+      </c>
+      <c r="F69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="G69">
+        <v>0.00040887458332550323</v>
+      </c>
+      <c r="H69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="I69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="J69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="K69">
+        <v>1.8231923141402803e-07</v>
+      </c>
+      <c r="L69">
+        <v>3.2818381788789566e-07</v>
+      </c>
+      <c r="M69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="N69">
+        <v>0.99345756774422567</v>
+      </c>
+      <c r="O69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="P69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="Q69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="R69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="S69">
+        <v>2.2201173507426822e-14</v>
+      </c>
+      <c r="T69">
+        <v>13</v>
+      </c>
+      <c r="U69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B70">
+        <v>4.3072997627369128e-14</v>
+      </c>
+      <c r="C70">
+        <v>4.3072997627369128e-14</v>
+      </c>
+      <c r="D70">
+        <v>4.3072997627369147e-14</v>
+      </c>
+      <c r="E70">
+        <v>0.0025320186064575452</v>
+      </c>
+      <c r="F70">
+        <v>4.3072997627369103e-14</v>
+      </c>
+      <c r="G70">
+        <v>7.0122738512847455e-08</v>
+      </c>
+      <c r="H70">
+        <v>4.3072997627368995e-14</v>
+      </c>
+      <c r="I70">
+        <v>4.3072997627368869e-14</v>
+      </c>
+      <c r="J70">
+        <v>4.3072997627368869e-14</v>
+      </c>
+      <c r="K70">
+        <v>4.3072997627369185e-14</v>
+      </c>
+      <c r="L70">
+        <v>2.3744046000721586e-07</v>
+      </c>
+      <c r="M70">
+        <v>4.307299762736909e-14</v>
+      </c>
+      <c r="N70">
+        <v>0.99746767382974078</v>
+      </c>
+      <c r="O70">
+        <v>4.3072997627369103e-14</v>
+      </c>
+      <c r="P70">
+        <v>4.3072997627369292e-14</v>
+      </c>
+      <c r="Q70">
+        <v>4.3072997627369292e-14</v>
+      </c>
+      <c r="R70">
+        <v>4.3072997627369292e-14</v>
+      </c>
+      <c r="S70">
+        <v>4.3072997627369141e-14</v>
+      </c>
+      <c r="T70">
+        <v>13</v>
+      </c>
+      <c r="U70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B71">
+        <v>6.4614668630695121e-14</v>
+      </c>
+      <c r="C71">
+        <v>6.4614668630695121e-14</v>
+      </c>
+      <c r="D71">
+        <v>6.4614668630695121e-14</v>
+      </c>
+      <c r="E71">
+        <v>0.0062282798499733935</v>
+      </c>
+      <c r="F71">
+        <v>6.4614668630695071e-14</v>
+      </c>
+      <c r="G71">
+        <v>2.3692882431091455e-07</v>
+      </c>
+      <c r="H71">
+        <v>6.4614668630694844e-14</v>
+      </c>
+      <c r="I71">
+        <v>6.4614668630694692e-14</v>
+      </c>
+      <c r="J71">
+        <v>6.4614668630694692e-14</v>
+      </c>
+      <c r="K71">
+        <v>6.4614668630695083e-14</v>
+      </c>
+      <c r="L71">
+        <v>0.00052112978497751263</v>
+      </c>
+      <c r="M71">
+        <v>6.4614668630695058e-14</v>
+      </c>
+      <c r="N71">
+        <v>0.99325035343532009</v>
+      </c>
+      <c r="O71">
+        <v>6.4614668630695058e-14</v>
+      </c>
+      <c r="P71">
+        <v>6.4614668630695247e-14</v>
+      </c>
+      <c r="Q71">
+        <v>6.4614668630695247e-14</v>
+      </c>
+      <c r="R71">
+        <v>6.4614668630695247e-14</v>
+      </c>
+      <c r="S71">
+        <v>6.4614668630694881e-14</v>
+      </c>
+      <c r="T71">
+        <v>13</v>
+      </c>
+      <c r="U71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="C72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="D72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="E72">
+        <v>0.0023840332550973649</v>
+      </c>
+      <c r="F72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="G72">
+        <v>0.00029912307776140245</v>
+      </c>
+      <c r="H72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="I72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="J72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="K72">
+        <v>9.1976762259578205e-13</v>
+      </c>
+      <c r="L72">
+        <v>0.0011327180066241286</v>
+      </c>
+      <c r="M72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="N72">
+        <v>6.7533953707220561e-06</v>
+      </c>
+      <c r="O72">
+        <v>0.99617737226396008</v>
+      </c>
+      <c r="P72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="Q72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="R72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="S72">
+        <v>2.2201302837492361e-14</v>
+      </c>
+      <c r="T72">
+        <v>14</v>
+      </c>
+      <c r="U72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="C73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="D73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="E73">
+        <v>0.0037209041241415574</v>
+      </c>
+      <c r="F73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="G73">
+        <v>6.164160973536646e-05</v>
+      </c>
+      <c r="H73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="I73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="J73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="K73">
+        <v>1.6215657314911905e-11</v>
+      </c>
+      <c r="L73">
+        <v>0.00049491106394373811</v>
+      </c>
+      <c r="M73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="N73">
+        <v>1.0641391228796386e-05</v>
+      </c>
+      <c r="O73">
+        <v>0.99571190179446856</v>
+      </c>
+      <c r="P73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="Q73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="R73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="S73">
+        <v>2.220114429746961e-14</v>
+      </c>
+      <c r="T73">
+        <v>14</v>
+      </c>
+      <c r="U73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="C74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="D74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="E74">
+        <v>0.002538925454916741</v>
+      </c>
+      <c r="F74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="G74">
+        <v>2.6420652157568743e-05</v>
+      </c>
+      <c r="H74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="I74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="J74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="K74">
+        <v>1.0958348902609044e-13</v>
+      </c>
+      <c r="L74">
+        <v>0.00066678530083964121</v>
+      </c>
+      <c r="M74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="N74">
+        <v>1.0971122749108904e-05</v>
+      </c>
+      <c r="O74">
+        <v>0.9967568974689609</v>
+      </c>
+      <c r="P74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="Q74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="R74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="S74">
+        <v>2.2200987613743968e-14</v>
+      </c>
+      <c r="T74">
+        <v>14</v>
+      </c>
+      <c r="U74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="C75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="D75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="E75">
+        <v>0.0014806297582533297</v>
+      </c>
+      <c r="F75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="G75">
+        <v>0.00099918747371105358</v>
+      </c>
+      <c r="H75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="I75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="J75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="K75">
+        <v>3.2032500528428819e-11</v>
+      </c>
+      <c r="L75">
+        <v>0.0018219592632467852</v>
+      </c>
+      <c r="M75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="N75">
+        <v>4.3458370512078964e-06</v>
+      </c>
+      <c r="O75">
+        <v>0.99569387763543871</v>
+      </c>
+      <c r="P75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="Q75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="R75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="S75">
+        <v>2.2201668605531308e-14</v>
+      </c>
+      <c r="T75">
+        <v>14</v>
+      </c>
+      <c r="U75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="C76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="D76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="E76">
+        <v>0.001579004047291689</v>
+      </c>
+      <c r="F76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="G76">
+        <v>0.001317869557710766</v>
+      </c>
+      <c r="H76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="I76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="J76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="K76">
+        <v>6.4292380396662762e-11</v>
+      </c>
+      <c r="L76">
+        <v>0.0011975000127091805</v>
+      </c>
+      <c r="M76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="N76">
+        <v>4.6089727081200169e-06</v>
+      </c>
+      <c r="O76">
+        <v>0.99590101734502134</v>
+      </c>
+      <c r="P76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="Q76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="R76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="S76">
+        <v>2.2201589280734714e-14</v>
+      </c>
+      <c r="T76">
+        <v>14</v>
+      </c>
+      <c r="U76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="C77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="D77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="E77">
+        <v>0.0030182023247930941</v>
+      </c>
+      <c r="F77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="G77">
+        <v>1.1292753033374799e-10</v>
+      </c>
+      <c r="H77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="I77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="J77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="K77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="L77">
+        <v>1.5488751314088404e-08</v>
+      </c>
+      <c r="M77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="N77">
+        <v>7.0007291509491112e-06</v>
+      </c>
+      <c r="O77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="P77">
+        <v>0.99697478134408857</v>
+      </c>
+      <c r="Q77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="R77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="S77">
+        <v>2.2200892727842602e-14</v>
+      </c>
+      <c r="T77">
+        <v>15</v>
+      </c>
+      <c r="U77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="C78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="D78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="E78">
+        <v>0.003368367556264676</v>
+      </c>
+      <c r="F78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="G78">
+        <v>3.4953860283295074e-10</v>
+      </c>
+      <c r="H78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="I78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="J78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="K78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="L78">
+        <v>4.4069577148920725e-08</v>
+      </c>
+      <c r="M78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="N78">
+        <v>6.8556204899271556e-06</v>
+      </c>
+      <c r="O78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="P78">
+        <v>0.99662473240384097</v>
+      </c>
+      <c r="Q78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="R78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="S78">
+        <v>2.2200897374511095e-14</v>
+      </c>
+      <c r="T78">
+        <v>15</v>
+      </c>
+      <c r="U78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="C79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="D79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="E79">
+        <v>0.0031880005622364179</v>
+      </c>
+      <c r="F79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="G79">
+        <v>1.2475548647116271e-10</v>
+      </c>
+      <c r="H79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="I79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="J79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="K79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="L79">
+        <v>2.4077054866602017e-08</v>
+      </c>
+      <c r="M79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="N79">
+        <v>7.6576108609549062e-06</v>
+      </c>
+      <c r="O79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="P79">
+        <v>0.9968043176248037</v>
+      </c>
+      <c r="Q79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="R79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="S79">
+        <v>2.2200895006841888e-14</v>
+      </c>
+      <c r="T79">
+        <v>15</v>
+      </c>
+      <c r="U79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="C80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="D80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="E80">
+        <v>0.0037088122867498358</v>
+      </c>
+      <c r="F80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="G80">
+        <v>2.5292594672643265e-10</v>
+      </c>
+      <c r="H80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="I80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="J80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="K80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="L80">
+        <v>1.8620228638284887e-08</v>
+      </c>
+      <c r="M80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="N80">
+        <v>4.1162000659676032e-06</v>
+      </c>
+      <c r="O80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="P80">
+        <v>0.99628705263974104</v>
+      </c>
+      <c r="Q80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="R80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="S80">
+        <v>2.2200899461396702e-14</v>
+      </c>
+      <c r="T80">
+        <v>15</v>
+      </c>
+      <c r="U80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="C81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="D81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="E81">
+        <v>0.0044651760308513384</v>
+      </c>
+      <c r="F81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="G81">
+        <v>2.4854766669462091e-10</v>
+      </c>
+      <c r="H81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="I81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="J81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="K81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="L81">
+        <v>2.8233465647784091e-08</v>
+      </c>
+      <c r="M81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="N81">
+        <v>5.2759353817254762e-06</v>
+      </c>
+      <c r="O81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="P81">
+        <v>0.99552951955146496</v>
+      </c>
+      <c r="Q81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="R81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="S81">
+        <v>2.2200906903353382e-14</v>
+      </c>
+      <c r="T81">
+        <v>15</v>
+      </c>
+      <c r="U81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="C82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="D82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="E82">
+        <v>0.0059891518375341738</v>
+      </c>
+      <c r="F82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="G82">
+        <v>8.0280973268397938e-08</v>
+      </c>
+      <c r="H82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="I82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="J82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="K82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="L82">
+        <v>2.6483074409836658e-10</v>
+      </c>
+      <c r="M82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="N82">
+        <v>1.5115733666825379e-09</v>
+      </c>
+      <c r="O82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="P82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="Q82">
+        <v>0.99401076610479977</v>
+      </c>
+      <c r="R82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="S82">
+        <v>2.2200914726795912e-14</v>
+      </c>
+      <c r="T82">
+        <v>16</v>
+      </c>
+      <c r="U82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="C83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="E83">
+        <v>1.9400611530789161e-11</v>
+      </c>
+      <c r="F83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="G83">
+        <v>5.9875405200186381e-09</v>
+      </c>
+      <c r="H83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="I83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="K83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="L83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="M83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="N83">
+        <v>0.00038294637599464747</v>
+      </c>
+      <c r="O83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="P83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="Q83">
+        <v>0.99961704761675341</v>
+      </c>
+      <c r="R83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="S83">
+        <v>2.2203988623563686e-14</v>
+      </c>
+      <c r="T83">
+        <v>16</v>
+      </c>
+      <c r="U83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="C84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="D84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="E84">
+        <v>9.7560645052575536e-11</v>
+      </c>
+      <c r="F84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="G84">
+        <v>2.0473973716312047e-13</v>
+      </c>
+      <c r="H84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="I84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="J84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="K84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="L84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="M84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="N84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="O84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="P84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="Q84">
+        <v>0.99999999990190158</v>
+      </c>
+      <c r="R84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="S84">
+        <v>2.2204460492381697e-14</v>
+      </c>
+      <c r="T84">
+        <v>16</v>
+      </c>
+      <c r="U84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="C85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="D85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="E85">
+        <v>2.2612909463182281e-10</v>
+      </c>
+      <c r="F85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="G85">
+        <v>3.1032852257697998e-08</v>
+      </c>
+      <c r="H85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="I85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="J85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="K85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="L85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="M85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="N85">
+        <v>6.204294148456902e-14</v>
+      </c>
+      <c r="O85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="P85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="Q85">
+        <v>0.99999996874064567</v>
+      </c>
+      <c r="R85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="S85">
+        <v>2.2204460453941795e-14</v>
+      </c>
+      <c r="T85">
+        <v>16</v>
+      </c>
+      <c r="U85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="C86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="D86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="E86">
+        <v>0.0017822080500496276</v>
+      </c>
+      <c r="F86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="G86">
+        <v>0.0013481908579566057</v>
+      </c>
+      <c r="H86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="I86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="J86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="K86">
+        <v>3.9370637338116972e-05</v>
+      </c>
+      <c r="L86">
+        <v>4.6454862250005195e-11</v>
+      </c>
+      <c r="M86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="N86">
+        <v>0.00072767143897349454</v>
+      </c>
+      <c r="O86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="P86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="Q86">
+        <v>0.99610255896896094</v>
+      </c>
+      <c r="R86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="S86">
+        <v>2.2201457439498277e-14</v>
+      </c>
+      <c r="T86">
+        <v>16</v>
+      </c>
+      <c r="U86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="C87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="D87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="E87">
+        <v>0.0023888212749218966</v>
+      </c>
+      <c r="F87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="G87">
+        <v>0.0013428541561771004</v>
+      </c>
+      <c r="H87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="I87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="J87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="K87">
+        <v>1.8636329499953542e-05</v>
+      </c>
+      <c r="L87">
+        <v>0.0036109410169301781</v>
+      </c>
+      <c r="M87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="N87">
+        <v>7.9408725248106947e-06</v>
+      </c>
+      <c r="O87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="P87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="Q87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="R87">
+        <v>0.99263080634967948</v>
+      </c>
+      <c r="S87">
+        <v>2.2202621139912655e-14</v>
+      </c>
+      <c r="T87">
+        <v>17</v>
+      </c>
+      <c r="U87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="C88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="D88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="E88">
+        <v>0.0018294615120948785</v>
+      </c>
+      <c r="F88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="G88">
+        <v>0.00046125912889843169</v>
+      </c>
+      <c r="H88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="I88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="J88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="K88">
+        <v>9.5220111627442309e-10</v>
+      </c>
+      <c r="L88">
+        <v>0.0053817312471286438</v>
+      </c>
+      <c r="M88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="N88">
+        <v>1.2130819740245579e-05</v>
+      </c>
+      <c r="O88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="P88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="Q88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="R88">
+        <v>0.99231541633967035</v>
+      </c>
+      <c r="S88">
+        <v>2.2202200229559285e-14</v>
+      </c>
+      <c r="T88">
+        <v>17</v>
+      </c>
+      <c r="U88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="C89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="D89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="E89">
+        <v>0.0020894961448914896</v>
+      </c>
+      <c r="F89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="G89">
+        <v>0.0017011044776448481</v>
+      </c>
+      <c r="H89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="I89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="J89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="K89">
+        <v>1.5272074531786142e-10</v>
+      </c>
+      <c r="L89">
+        <v>0.0049426606275511341</v>
+      </c>
+      <c r="M89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="N89">
+        <v>2.5808692269758591e-05</v>
+      </c>
+      <c r="O89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="P89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="Q89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="R89">
+        <v>0.99124092990465551</v>
+      </c>
+      <c r="S89">
+        <v>2.2202792940655939e-14</v>
+      </c>
+      <c r="T89">
+        <v>17</v>
+      </c>
+      <c r="U89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="C90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="D90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="E90">
+        <v>0.0029599606596973087</v>
+      </c>
+      <c r="F90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="G90">
+        <v>0.00010508922000686988</v>
+      </c>
+      <c r="H90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="I90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="J90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="K90">
+        <v>7.6138537583699353e-12</v>
+      </c>
+      <c r="L90">
+        <v>0.0020039043963738143</v>
+      </c>
+      <c r="M90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="N90">
+        <v>2.815188441264735e-05</v>
+      </c>
+      <c r="O90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="P90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="Q90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="R90">
+        <v>0.994902893831629</v>
+      </c>
+      <c r="S90">
+        <v>2.220174821224581e-14</v>
+      </c>
+      <c r="T90">
+        <v>17</v>
+      </c>
+      <c r="U90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="C91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="D91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="E91">
+        <v>0.0034934304667299469</v>
+      </c>
+      <c r="F91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="G91">
+        <v>2.0252141249151486e-05</v>
+      </c>
+      <c r="H91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="I91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="J91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="K91">
+        <v>6.737894269666347e-13</v>
+      </c>
+      <c r="L91">
+        <v>0.00088413154706593966</v>
+      </c>
+      <c r="M91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="N91">
+        <v>3.8344621709441447e-05</v>
+      </c>
+      <c r="O91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="P91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="Q91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="R91">
+        <v>0.99556384122230546</v>
+      </c>
+      <c r="S91">
+        <v>2.2201302166041777e-14</v>
+      </c>
+      <c r="T91">
+        <v>17</v>
+      </c>
+      <c r="U91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="C92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="D92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="E92">
+        <v>0.0024179273354378358</v>
+      </c>
+      <c r="F92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="G92">
+        <v>0.0010830538438791936</v>
+      </c>
+      <c r="H92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="I92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="J92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="K92">
+        <v>0.00022877216614664085</v>
+      </c>
+      <c r="L92">
+        <v>0.0037687977140682793</v>
+      </c>
+      <c r="M92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="N92">
+        <v>5.0875211068830082e-06</v>
+      </c>
+      <c r="O92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="P92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="Q92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="R92">
+        <v>0.99249636141909481</v>
+      </c>
+      <c r="S92">
+        <v>2.2202638018941899e-14</v>
+      </c>
+      <c r="T92">
+        <v>17</v>
+      </c>
+      <c r="U92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="C93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="D93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="E93">
+        <v>0.00036514996384787992</v>
+      </c>
+      <c r="F93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="G93">
+        <v>8.5539469892242279e-06</v>
+      </c>
+      <c r="H93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="I93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="J93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="K93">
+        <v>0.0013524383022589838</v>
+      </c>
+      <c r="L93">
+        <v>3.1394335295953968e-08</v>
+      </c>
+      <c r="M93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="N93">
+        <v>0.00046359565506900503</v>
+      </c>
+      <c r="O93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="P93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="Q93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="R93">
+        <v>2.2201776702395882e-14</v>
+      </c>
+      <c r="S93">
+        <v>0.99781023073723318</v>
+      </c>
+      <c r="T93">
+        <v>18</v>
+      </c>
+      <c r="U93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="C94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="D94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="E94">
+        <v>9.079192896441351e-05</v>
+      </c>
+      <c r="F94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="G94">
+        <v>3.4444191733382867e-06</v>
+      </c>
+      <c r="H94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="I94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="J94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="K94">
+        <v>0.0013031972006090572</v>
+      </c>
+      <c r="L94">
+        <v>4.3854731762880768e-10</v>
+      </c>
+      <c r="M94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="N94">
+        <v>0.001022306540953731</v>
+      </c>
+      <c r="O94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="P94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="Q94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="R94">
+        <v>2.2201496876502003e-14</v>
+      </c>
+      <c r="S94">
+        <v>0.99758025947148576</v>
+      </c>
+      <c r="T94">
+        <v>18</v>
+      </c>
+      <c r="U94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="C95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="D95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="E95">
+        <v>0.0070410996701879306</v>
+      </c>
+      <c r="F95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="G95">
+        <v>0.00026189852903490507</v>
+      </c>
+      <c r="H95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="I95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="J95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="K95">
+        <v>0.00015009233463806042</v>
+      </c>
+      <c r="L95">
+        <v>9.9293351041743281e-05</v>
+      </c>
+      <c r="M95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="N95">
+        <v>6.3179235653419234e-06</v>
+      </c>
+      <c r="O95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="P95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="Q95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="R95">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="S95">
+        <v>0.99244129819126559</v>
+      </c>
+      <c r="T95">
+        <v>18</v>
+      </c>
+      <c r="U95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="C96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="D96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="E96">
+        <v>0.0070410996701879306</v>
+      </c>
+      <c r="F96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="G96">
+        <v>0.00026189852903490507</v>
+      </c>
+      <c r="H96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="I96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="J96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="K96">
+        <v>0.00015009233463806042</v>
+      </c>
+      <c r="L96">
+        <v>9.9293351041743281e-05</v>
+      </c>
+      <c r="M96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="N96">
+        <v>6.3179235653419234e-06</v>
+      </c>
+      <c r="O96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="P96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="Q96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="R96">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="S96">
+        <v>0.99244129819126559</v>
+      </c>
+      <c r="T96">
+        <v>18</v>
+      </c>
+      <c r="U96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="C97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="D97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="E97">
+        <v>0.0070410996701879306</v>
+      </c>
+      <c r="F97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="G97">
+        <v>0.00026189852903490507</v>
+      </c>
+      <c r="H97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="I97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="J97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="K97">
+        <v>0.00015009233463806042</v>
+      </c>
+      <c r="L97">
+        <v>9.9293351041743281e-05</v>
+      </c>
+      <c r="M97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="N97">
+        <v>6.3179235653419234e-06</v>
+      </c>
+      <c r="O97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="P97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="Q97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="R97">
+        <v>2.2201262789672964e-14</v>
+      </c>
+      <c r="S97">
+        <v>0.99244129819126559</v>
+      </c>
+      <c r="T97">
+        <v>18</v>
+      </c>
+      <c r="U97">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>